--- a/Excel/镇魂街/角色配置表/card.xlsx
+++ b/Excel/镇魂街/角色配置表/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\角色配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344B7227-F4BB-4357-A1BC-8D8382D8B247}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B85F0-0C05-4874-AD8D-E22379217E57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="319">
   <si>
     <t>标识</t>
   </si>
@@ -1128,6 +1128,13 @@
   </si>
   <si>
     <t>关联人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0#0#0#1.5</t>
+  </si>
+  <si>
+    <t>0#0#0#1.5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1601,10 +1608,10 @@
   <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2305,7 +2312,7 @@
         <v>82</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>82</v>
@@ -2414,7 +2421,7 @@
         <v>82</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>82</v>
@@ -2523,7 +2530,7 @@
         <v>82</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>82</v>
@@ -2632,7 +2639,7 @@
         <v>82</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>82</v>
@@ -2741,7 +2748,7 @@
         <v>82</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>82</v>
@@ -2850,7 +2857,7 @@
         <v>82</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>82</v>
@@ -2959,7 +2966,7 @@
         <v>82</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>82</v>
@@ -3068,7 +3075,7 @@
         <v>82</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>82</v>
@@ -3177,7 +3184,7 @@
         <v>82</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>82</v>
@@ -3286,7 +3293,7 @@
         <v>82</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R17" s="8" t="s">
         <v>82</v>
@@ -3395,7 +3402,7 @@
         <v>82</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>82</v>
@@ -3504,7 +3511,7 @@
         <v>82</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>82</v>
@@ -3613,7 +3620,7 @@
         <v>82</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>82</v>
@@ -3722,7 +3729,7 @@
         <v>82</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>82</v>
@@ -3831,7 +3838,7 @@
         <v>82</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>82</v>
@@ -3940,7 +3947,7 @@
         <v>82</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>82</v>
@@ -4049,7 +4056,7 @@
         <v>82</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>82</v>
@@ -4158,7 +4165,7 @@
         <v>82</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>82</v>
@@ -4267,7 +4274,7 @@
         <v>82</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>82</v>
@@ -4376,7 +4383,7 @@
         <v>82</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R27" s="11" t="s">
         <v>82</v>
@@ -4485,7 +4492,7 @@
         <v>82</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>82</v>
@@ -4594,7 +4601,7 @@
         <v>82</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>82</v>
@@ -4703,7 +4710,7 @@
         <v>82</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R30" s="11" t="s">
         <v>82</v>
@@ -4812,7 +4819,7 @@
         <v>82</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R31" s="11" t="s">
         <v>82</v>
@@ -4921,7 +4928,7 @@
         <v>82</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R32" s="11" t="s">
         <v>82</v>
@@ -5030,7 +5037,7 @@
         <v>82</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R33" s="11" t="s">
         <v>82</v>
@@ -5139,7 +5146,7 @@
         <v>82</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R34" s="11" t="s">
         <v>82</v>
@@ -5248,7 +5255,7 @@
         <v>82</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R35" s="11" t="s">
         <v>82</v>
@@ -5357,7 +5364,7 @@
         <v>82</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R36" s="11" t="s">
         <v>82</v>
@@ -5466,7 +5473,7 @@
         <v>82</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>82</v>
@@ -5575,7 +5582,7 @@
         <v>82</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R38" s="11" t="s">
         <v>82</v>
@@ -5684,7 +5691,7 @@
         <v>82</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R39" s="11" t="s">
         <v>82</v>
@@ -5793,7 +5800,7 @@
         <v>82</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R40" s="11" t="s">
         <v>82</v>
@@ -5902,7 +5909,7 @@
         <v>82</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R41" s="11" t="s">
         <v>82</v>
@@ -6011,7 +6018,7 @@
         <v>82</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>82</v>
@@ -6120,7 +6127,7 @@
         <v>82</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>82</v>

--- a/Excel/镇魂街/角色配置表/card.xlsx
+++ b/Excel/镇魂街/角色配置表/card.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\角色配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B85F0-0C05-4874-AD8D-E22379217E57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA7F1FE-1ECB-4D99-BC8C-948360D026E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="329">
   <si>
     <t>标识</t>
   </si>
@@ -341,13 +341,7 @@
     <t>牛逼的</t>
   </si>
   <si>
-    <t>0#0#100#0</t>
-  </si>
-  <si>
     <t>0#0#0#0</t>
-  </si>
-  <si>
-    <t>0#0#500#0</t>
   </si>
   <si>
     <t>0#0#1#0</t>
@@ -659,12 +653,6 @@
     <t>关羽</t>
   </si>
   <si>
-    <t>0#0#150#0</t>
-  </si>
-  <si>
-    <t>0#0#1000#0</t>
-  </si>
-  <si>
     <t>cardface_gy_1102001</t>
   </si>
   <si>
@@ -1135,6 +1123,56 @@
   </si>
   <si>
     <t>0#0#0#1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛逼的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常牛逼的</t>
+  </si>
+  <si>
+    <t>非常牛逼的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太牛逼的</t>
+  </si>
+  <si>
+    <t>不太牛逼的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0#0#10#90</t>
+  </si>
+  <si>
+    <t>0#0#10#90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0#0#50#450</t>
+  </si>
+  <si>
+    <t>0#0#50#450</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0#0#15#135</t>
+  </si>
+  <si>
+    <t>0#0#15#135</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0#0#100#900</t>
+  </si>
+  <si>
+    <t>0#0#100#900</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0#0#0#0.5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1394,9 +1432,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,6 +1484,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1608,10 +1680,10 @@
   <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1744,10 +1816,10 @@
         <v>33</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.15">
@@ -1854,10 +1926,10 @@
         <v>35</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
@@ -2074,10 +2146,10 @@
         <v>75</v>
       </c>
       <c r="AI4" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.15">
@@ -2276,7 +2348,7 @@
         <v>79</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -2300,25 +2372,25 @@
         <v>1</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T8" s="9" t="str">
         <f>"1301"&amp;RIGHT(B8,3)&amp;"#"&amp;"1302"&amp;RIGHT(B8,3)</f>
@@ -2343,23 +2415,23 @@
         <v>60</v>
       </c>
       <c r="AA8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AB8" s="8" t="s">
+      <c r="AD8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AC8" s="8" t="s">
+      <c r="AE8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AF8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AE8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="AG8" s="8">
         <v>1</v>
       </c>
@@ -2367,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ8" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.15">
@@ -2382,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -2409,25 +2481,25 @@
         <v>1</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T9" s="9" t="str">
         <f t="shared" ref="T9:T22" si="0">"1301"&amp;RIGHT(B9,3)&amp;"#"&amp;"1302"&amp;RIGHT(B9,3)</f>
@@ -2452,23 +2524,23 @@
         <v>60</v>
       </c>
       <c r="AA9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AB9" s="8" t="s">
+      <c r="AD9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AC9" s="8" t="s">
+      <c r="AE9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AD9" s="8" t="s">
+      <c r="AF9" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AE9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="AG9" s="8">
         <v>1</v>
       </c>
@@ -2476,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ9" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.15">
@@ -2491,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>80</v>
@@ -2518,25 +2590,25 @@
         <v>1</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2561,23 +2633,23 @@
         <v>60</v>
       </c>
       <c r="AA10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AB10" s="8" t="s">
+      <c r="AD10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AC10" s="8" t="s">
+      <c r="AE10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AF10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AE10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF10" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="AG10" s="8">
         <v>1</v>
       </c>
@@ -2585,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ10" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.15">
@@ -2600,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -2627,25 +2699,25 @@
         <v>1</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2670,23 +2742,23 @@
         <v>60</v>
       </c>
       <c r="AA11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AB11" s="8" t="s">
+      <c r="AD11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AC11" s="8" t="s">
+      <c r="AE11" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AD11" s="8" t="s">
+      <c r="AF11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AE11" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF11" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="AG11" s="8">
         <v>1</v>
       </c>
@@ -2694,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="AI11" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ11" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.15">
@@ -2709,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>80</v>
@@ -2736,25 +2808,25 @@
         <v>1</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2779,22 +2851,22 @@
         <v>60</v>
       </c>
       <c r="AA12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC12" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AB12" s="8" t="s">
+      <c r="AD12" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AC12" s="8" t="s">
+      <c r="AE12" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AD12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE12" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="AF12" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG12" s="8">
         <v>1</v>
@@ -2803,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="AI12" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ12" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.15">
@@ -2818,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>80</v>
@@ -2845,25 +2917,25 @@
         <v>1</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2888,22 +2960,22 @@
         <v>60</v>
       </c>
       <c r="AA13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AB13" s="8" t="s">
+      <c r="AD13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AC13" s="8" t="s">
+      <c r="AE13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AD13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="AF13" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG13" s="8">
         <v>1</v>
@@ -2912,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AI13" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ13" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.15">
@@ -2927,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -2954,25 +3026,25 @@
         <v>1</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2997,22 +3069,22 @@
         <v>60</v>
       </c>
       <c r="AA14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC14" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AB14" s="8" t="s">
+      <c r="AD14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AC14" s="8" t="s">
+      <c r="AE14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AD14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE14" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="AF14" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="8">
         <v>1</v>
@@ -3021,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="AI14" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ14" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.15">
@@ -3036,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -3063,25 +3135,25 @@
         <v>1</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3106,23 +3178,23 @@
         <v>60</v>
       </c>
       <c r="AA15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC15" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AB15" s="8" t="s">
+      <c r="AD15" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AC15" s="8" t="s">
+      <c r="AE15" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AD15" s="8" t="s">
+      <c r="AF15" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AE15" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF15" s="14" t="s">
-        <v>136</v>
-      </c>
       <c r="AG15" s="8">
         <v>1</v>
       </c>
@@ -3130,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="AI15" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ15" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.15">
@@ -3145,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>80</v>
@@ -3172,25 +3244,25 @@
         <v>1</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3215,22 +3287,22 @@
         <v>60</v>
       </c>
       <c r="AA16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC16" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AB16" s="8" t="s">
+      <c r="AD16" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AC16" s="8" t="s">
+      <c r="AE16" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AD16" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE16" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="AF16" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG16" s="8">
         <v>1</v>
@@ -3239,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="AI16" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ16" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.15">
@@ -3254,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -3281,25 +3353,25 @@
         <v>1</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3324,22 +3396,22 @@
         <v>60</v>
       </c>
       <c r="AA17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AB17" s="8" t="s">
+      <c r="AD17" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AC17" s="8" t="s">
+      <c r="AE17" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AD17" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE17" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="AF17" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG17" s="8">
         <v>1</v>
@@ -3348,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="AI17" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ17" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.15">
@@ -3363,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>80</v>
@@ -3390,25 +3462,25 @@
         <v>1</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3433,22 +3505,22 @@
         <v>60</v>
       </c>
       <c r="AA18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC18" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AB18" s="8" t="s">
+      <c r="AD18" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AC18" s="8" t="s">
+      <c r="AE18" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AD18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE18" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="AF18" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG18" s="8">
         <v>1</v>
@@ -3457,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="AI18" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ18" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.15">
@@ -3472,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>80</v>
@@ -3499,25 +3571,25 @@
         <v>1</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3542,22 +3614,22 @@
         <v>60</v>
       </c>
       <c r="AA19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC19" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AB19" s="8" t="s">
+      <c r="AD19" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AE19" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AD19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE19" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="AF19" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG19" s="8">
         <v>1</v>
@@ -3566,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="AI19" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ19" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.15">
@@ -3581,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>80</v>
@@ -3608,25 +3680,25 @@
         <v>1</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3651,22 +3723,22 @@
         <v>60</v>
       </c>
       <c r="AA20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC20" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AB20" s="8" t="s">
+      <c r="AD20" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AE20" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="AD20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE20" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="AF20" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG20" s="8">
         <v>1</v>
@@ -3675,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="AI20" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ20" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.15">
@@ -3690,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>80</v>
@@ -3717,25 +3789,25 @@
         <v>1</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3760,22 +3832,22 @@
         <v>60</v>
       </c>
       <c r="AA21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC21" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="AB21" s="8" t="s">
+      <c r="AD21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AC21" s="8" t="s">
+      <c r="AE21" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AD21" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE21" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="AF21" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG21" s="8">
         <v>1</v>
@@ -3784,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ21" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.15">
@@ -3799,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>80</v>
@@ -3826,25 +3898,25 @@
         <v>1</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3869,22 +3941,22 @@
         <v>60</v>
       </c>
       <c r="AA22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC22" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AB22" s="8" t="s">
+      <c r="AD22" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="AC22" s="8" t="s">
+      <c r="AE22" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="AD22" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE22" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="AF22" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG22" s="8">
         <v>1</v>
@@ -3893,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="AI22" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ22" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.15">
@@ -3908,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="F23" s="12">
         <v>1</v>
@@ -3935,25 +4007,25 @@
         <v>1</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T23" s="11" t="str">
         <f>"1303"&amp;RIGHT(B23,3)</f>
@@ -3978,23 +4050,23 @@
         <v>60</v>
       </c>
       <c r="AA23" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE23" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AB23" s="11" t="s">
+      <c r="AF23" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="AC23" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD23" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE23" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF23" s="16" t="s">
-        <v>187</v>
-      </c>
       <c r="AG23" s="11">
         <v>0</v>
       </c>
@@ -4002,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="AI23" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ23" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.15">
@@ -4017,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>80</v>
@@ -4044,25 +4116,25 @@
         <v>1</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T24" s="11" t="str">
         <f t="shared" ref="T24:T43" si="1">"1303"&amp;RIGHT(B24,3)</f>
@@ -4087,23 +4159,23 @@
         <v>60</v>
       </c>
       <c r="AA24" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB24" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC24" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE24" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="AB24" s="11" t="s">
+      <c r="AF24" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="AC24" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE24" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF24" s="17" t="s">
-        <v>194</v>
-      </c>
       <c r="AG24" s="11">
         <v>0</v>
       </c>
@@ -4111,10 +4183,10 @@
         <v>1</v>
       </c>
       <c r="AI24" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ24" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.15">
@@ -4126,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>80</v>
@@ -4144,34 +4216,34 @@
         <v>3</v>
       </c>
       <c r="J25" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" s="11">
         <v>1</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>82</v>
+        <v>326</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T25" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4196,22 +4268,22 @@
         <v>60</v>
       </c>
       <c r="AA25" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC25" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD25" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE25" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="AB25" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC25" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD25" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE25" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="AF25" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG25" s="11">
         <v>0</v>
@@ -4220,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="AI25" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ25" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.15">
@@ -4235,10 +4307,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="F26" s="12">
         <v>1</v>
@@ -4262,25 +4334,25 @@
         <v>1</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T26" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4305,23 +4377,23 @@
         <v>60</v>
       </c>
       <c r="AA26" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB26" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC26" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD26" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE26" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="AB26" s="11" t="s">
+      <c r="AF26" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="AC26" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD26" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE26" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF26" s="16" t="s">
-        <v>207</v>
-      </c>
       <c r="AG26" s="11">
         <v>0</v>
       </c>
@@ -4329,10 +4401,10 @@
         <v>1</v>
       </c>
       <c r="AI26" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ26" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.15">
@@ -4344,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>80</v>
@@ -4362,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="11">
         <v>1</v>
@@ -4371,25 +4443,25 @@
         <v>1</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T27" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4414,22 +4486,22 @@
         <v>60</v>
       </c>
       <c r="AA27" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC27" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE27" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AB27" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC27" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD27" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE27" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="AF27" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG27" s="11">
         <v>0</v>
@@ -4438,10 +4510,10 @@
         <v>1</v>
       </c>
       <c r="AI27" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ27" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.15">
@@ -4453,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="F28" s="12">
         <v>1</v>
@@ -4471,7 +4543,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="11">
         <v>1</v>
@@ -4480,25 +4552,25 @@
         <v>1</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T28" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4523,22 +4595,22 @@
         <v>60</v>
       </c>
       <c r="AA28" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB28" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC28" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD28" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE28" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="AB28" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE28" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="AF28" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG28" s="11">
         <v>0</v>
@@ -4547,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="AI28" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ28" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.15">
@@ -4562,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>80</v>
@@ -4589,25 +4661,25 @@
         <v>1</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T29" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4632,22 +4704,22 @@
         <v>60</v>
       </c>
       <c r="AA29" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC29" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE29" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="AB29" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD29" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE29" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="AF29" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG29" s="11">
         <v>0</v>
@@ -4656,10 +4728,10 @@
         <v>1</v>
       </c>
       <c r="AI29" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ29" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.15">
@@ -4671,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="F30" s="12">
         <v>1</v>
@@ -4698,25 +4770,25 @@
         <v>1</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T30" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4741,22 +4813,22 @@
         <v>60</v>
       </c>
       <c r="AA30" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD30" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE30" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AB30" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC30" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD30" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE30" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="AF30" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG30" s="11">
         <v>0</v>
@@ -4765,10 +4837,10 @@
         <v>1</v>
       </c>
       <c r="AI30" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ30" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.15">
@@ -4780,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>80</v>
@@ -4798,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="11">
         <v>1</v>
@@ -4807,25 +4879,25 @@
         <v>1</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T31" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4850,22 +4922,22 @@
         <v>60</v>
       </c>
       <c r="AA31" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC31" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD31" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE31" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AB31" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC31" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD31" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE31" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="AF31" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG31" s="11">
         <v>0</v>
@@ -4874,10 +4946,10 @@
         <v>1</v>
       </c>
       <c r="AI31" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ31" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.15">
@@ -4889,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="F32" s="12">
         <v>1</v>
@@ -4907,7 +4979,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" s="11">
         <v>1</v>
@@ -4916,25 +4988,25 @@
         <v>1</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T32" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4959,22 +5031,22 @@
         <v>60</v>
       </c>
       <c r="AA32" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB32" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE32" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AB32" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC32" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD32" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE32" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="AF32" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG32" s="11">
         <v>0</v>
@@ -4983,10 +5055,10 @@
         <v>1</v>
       </c>
       <c r="AI32" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ32" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.15">
@@ -4998,10 +5070,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="F33" s="12">
         <v>1</v>
@@ -5016,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" s="11">
         <v>1</v>
@@ -5025,25 +5097,25 @@
         <v>1</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T33" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5068,22 +5140,22 @@
         <v>60</v>
       </c>
       <c r="AA33" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC33" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE33" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="AB33" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC33" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD33" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE33" s="11" t="s">
-        <v>249</v>
-      </c>
       <c r="AF33" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG33" s="11">
         <v>0</v>
@@ -5092,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="AI33" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ33" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.15">
@@ -5107,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>80</v>
@@ -5134,25 +5206,25 @@
         <v>1</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T34" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5177,22 +5249,22 @@
         <v>60</v>
       </c>
       <c r="AA34" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB34" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC34" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD34" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE34" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AB34" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC34" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD34" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE34" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="AF34" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG34" s="11">
         <v>0</v>
@@ -5201,10 +5273,10 @@
         <v>1</v>
       </c>
       <c r="AI34" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ34" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.15">
@@ -5216,10 +5288,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="F35" s="12">
         <v>1</v>
@@ -5234,34 +5306,34 @@
         <v>2</v>
       </c>
       <c r="J35" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" s="11">
         <v>1</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T35" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5286,22 +5358,22 @@
         <v>60</v>
       </c>
       <c r="AA35" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB35" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC35" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD35" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE35" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="AB35" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC35" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD35" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE35" s="11" t="s">
-        <v>261</v>
-      </c>
       <c r="AF35" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG35" s="11">
         <v>0</v>
@@ -5310,10 +5382,10 @@
         <v>1</v>
       </c>
       <c r="AI35" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ35" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.15">
@@ -5325,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>80</v>
@@ -5352,25 +5424,25 @@
         <v>1</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T36" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5395,22 +5467,22 @@
         <v>60</v>
       </c>
       <c r="AA36" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB36" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC36" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD36" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE36" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="AB36" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC36" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD36" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE36" s="11" t="s">
-        <v>267</v>
-      </c>
       <c r="AF36" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG36" s="11">
         <v>0</v>
@@ -5419,10 +5491,10 @@
         <v>1</v>
       </c>
       <c r="AI36" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ36" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.15">
@@ -5434,10 +5506,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="F37" s="12">
         <v>1</v>
@@ -5461,25 +5533,25 @@
         <v>1</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T37" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5504,23 +5576,23 @@
         <v>60</v>
       </c>
       <c r="AA37" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB37" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC37" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD37" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE37" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="AB37" s="11" t="s">
+      <c r="AF37" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="AC37" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD37" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE37" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF37" s="17" t="s">
-        <v>274</v>
-      </c>
       <c r="AG37" s="11">
         <v>0</v>
       </c>
@@ -5528,10 +5600,10 @@
         <v>1</v>
       </c>
       <c r="AI37" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ37" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.15">
@@ -5543,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="F38" s="12">
         <v>1</v>
@@ -5561,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="11">
         <v>1</v>
@@ -5570,25 +5642,25 @@
         <v>1</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T38" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5613,22 +5685,22 @@
         <v>60</v>
       </c>
       <c r="AA38" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB38" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC38" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD38" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE38" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="AB38" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC38" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD38" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE38" s="11" t="s">
-        <v>280</v>
-      </c>
       <c r="AF38" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG38" s="11">
         <v>0</v>
@@ -5637,10 +5709,10 @@
         <v>1</v>
       </c>
       <c r="AI38" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ38" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.15">
@@ -5652,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>80</v>
@@ -5670,7 +5742,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="11">
         <v>1</v>
@@ -5679,25 +5751,25 @@
         <v>1</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T39" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5722,22 +5794,22 @@
         <v>60</v>
       </c>
       <c r="AA39" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB39" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC39" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD39" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE39" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AB39" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC39" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD39" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE39" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="AF39" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG39" s="11">
         <v>0</v>
@@ -5746,10 +5818,10 @@
         <v>1</v>
       </c>
       <c r="AI39" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ39" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.15">
@@ -5761,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>80</v>
@@ -5779,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="11">
         <v>1</v>
@@ -5788,25 +5860,25 @@
         <v>1</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T40" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5831,22 +5903,22 @@
         <v>60</v>
       </c>
       <c r="AA40" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC40" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD40" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE40" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="AB40" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC40" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD40" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE40" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="AF40" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG40" s="11">
         <v>0</v>
@@ -5855,10 +5927,10 @@
         <v>1</v>
       </c>
       <c r="AI40" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ40" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.15">
@@ -5870,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>80</v>
@@ -5888,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="11">
         <v>1</v>
@@ -5897,25 +5969,25 @@
         <v>1</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T41" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5940,22 +6012,22 @@
         <v>60</v>
       </c>
       <c r="AA41" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB41" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC41" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD41" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE41" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="AB41" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC41" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD41" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE41" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="AF41" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG41" s="11">
         <v>0</v>
@@ -5964,10 +6036,10 @@
         <v>1</v>
       </c>
       <c r="AI41" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ41" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.15">
@@ -5979,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>80</v>
@@ -5997,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="11">
         <v>1</v>
@@ -6006,25 +6078,25 @@
         <v>1</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T42" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6049,22 +6121,22 @@
         <v>60</v>
       </c>
       <c r="AA42" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB42" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC42" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD42" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE42" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AB42" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC42" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD42" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE42" s="11" t="s">
-        <v>304</v>
-      </c>
       <c r="AF42" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG42" s="11">
         <v>0</v>
@@ -6073,10 +6145,10 @@
         <v>1</v>
       </c>
       <c r="AI42" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ42" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.15">
@@ -6088,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>80</v>
@@ -6106,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="11">
         <v>1</v>
@@ -6115,25 +6187,25 @@
         <v>1</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T43" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6158,22 +6230,22 @@
         <v>60</v>
       </c>
       <c r="AA43" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB43" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC43" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD43" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE43" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AB43" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC43" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD43" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE43" s="11" t="s">
-        <v>310</v>
-      </c>
       <c r="AF43" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG43" s="11">
         <v>0</v>
@@ -6182,10 +6254,10 @@
         <v>1</v>
       </c>
       <c r="AI43" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ43" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
